--- a/data/trans_bre/P28A_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28A_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-4,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>-34,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-27,18%</t>
+          <t>-63,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-25,94%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,91%</t>
+          <t>15,29%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 6,26</t>
+          <t>-8,31; 1,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 3,04</t>
+          <t>-10,24; -0,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,0</t>
+          <t>-2,32; 1,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 7,26</t>
+          <t>-3,66; 4,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,04; 69,72</t>
+          <t>-69,27; 40,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-63,6; 40,12</t>
+          <t>-89,61; 3,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 396,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 331,98</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,89</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,45</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-48,72%</t>
+          <t>-41,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-31,82%</t>
+          <t>-18,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-70,63%</t>
+          <t>-44,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-19,8%</t>
+          <t>-60,11%</t>
         </is>
       </c>
     </row>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 0,59</t>
+          <t>-8,95; 2,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 3,69</t>
+          <t>-6,76; 3,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 0,86</t>
+          <t>-4,73; 1,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 3,88</t>
+          <t>-4,15; 1,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,11; 18,03</t>
+          <t>-80,18; 78,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,61; 52,86</t>
+          <t>-72,15; 117,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -820,17 +820,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,74</t>
+          <t>11,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,17 +840,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>-17,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>396,96%</t>
+          <t>338,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>125,31%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 18,22</t>
+          <t>-18,12; 12,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 36,65</t>
+          <t>-1,97; 26,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 17,57</t>
+          <t>0,0; 17,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-81,57; 351,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,46; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-19,63%</t>
+          <t>-35,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,14%</t>
+          <t>-24,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-38,91%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>-14,05%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 1,96</t>
+          <t>-6,94; 0,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 3,6</t>
+          <t>-4,82; 1,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,07</t>
+          <t>-1,6; 1,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 3,79</t>
+          <t>-2,68; 1,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,05; 19,68</t>
+          <t>-63,48; 13,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,36; 41,53</t>
+          <t>-60,57; 45,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-87,94; 107,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,81; 217,13</t>
+          <t>-84,9; 181,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28A_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28A_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,12</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-4,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-34,67%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-63,61%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-10,49%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>15,29%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.215543322143105</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-6.208520218134784</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1132167586274224</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.477798397393332</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.2477180031718432</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.5605124127988905</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.0820535817820828</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.7324472092719417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,31; 1,88</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,24; -0,61</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 1,62</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 4,02</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-69,27; 40,84</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-89,61; 3,31</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-11.32910323534874</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.10108019356158</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.159635270773192</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.573002901698149</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.6826848517289943</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.8797785454720565</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.9050744338220056</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.199239626173336</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.052862219759603</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.097923765269063</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.271981623269046</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.5125722469101123</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.3715136357937007</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>10.3247011700696</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,92</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-41,18%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-18,97%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-44,46%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-60,11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,95; 2,18</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 3,94</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; 1,36</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 1,63</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-80,18; 78,22</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-72,15; 117,58</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.850329378375005</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.651751888060792</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.482807290171889</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.250164510664712</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1907490915825659</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3265817456683432</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.5660370273268666</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.3908005885551114</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,66</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,24</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-17,38%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>338,36%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.58998336545436</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.291218460467235</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-10.07285146975655</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.064182633391825</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.778820315494244</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5389723225800535</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-18,12; 12,48</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 26,47</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 17,3</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.055327932618785</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.64015220685602</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.245955369526693</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.84634266811157</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.234417577336705</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.868098709598777</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +815,177 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,91</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-35,09%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-24,06%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-14,05%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.930440127554733</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>20.84048371742947</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.434079325976572</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1243111083922597</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>4.039058069789569</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 0,59</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 1,74</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 1,62</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 1,67</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-63,48; 13,26</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-60,57; 45,69</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-84,9; 181,55</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-25.52112261691807</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.7295985707625361</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.98125800648764</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>43.09155264613382</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>26.11132828382873</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-2.432322832394571</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3185260838034235</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.03318049855495775</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.6576873399571224</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2052389462116416</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.03395062129152605</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.01830163442839906</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.219075083629429</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.838946176879031</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.318790933104835</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.148966278442544</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.897012642339682</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.524803908546619</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4533970122988648</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.7428225465109565</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.527595703052612</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.428794349460507</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.175574181681748</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.439053262007615</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.3034860440608404</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.011577553388508</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>4.360541572466687</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>4.316359993814404</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +993,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
